--- a/Public/templates/textbook_catalog.xlsx
+++ b/Public/templates/textbook_catalog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,15 +54,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目录名一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试目录内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显示状态(1:上线;2:下线)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -434,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -456,10 +464,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -468,6 +476,23 @@
         <v>56</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
